--- a/Output_Efficient_Frontier/frontier_summary_stats.xlsx
+++ b/Output_Efficient_Frontier/frontier_summary_stats.xlsx
@@ -40,13 +40,13 @@
     <t>Average</t>
   </si>
   <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>20.37%</t>
-  </si>
-  <si>
-    <t>13.86%</t>
+    <t>2.45%</t>
+  </si>
+  <si>
+    <t>20.52%</t>
+  </si>
+  <si>
+    <t>14.05%</t>
   </si>
   <si>
     <t>5.01%</t>
@@ -58,22 +58,22 @@
     <t>14.32%</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>7.87%</t>
-  </si>
-  <si>
-    <t>12.39%</t>
-  </si>
-  <si>
-    <t>9.46%</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>7.96%</t>
+  </si>
+  <si>
+    <t>13.29%</t>
+  </si>
+  <si>
+    <t>9.58%</t>
   </si>
 </sst>
 </file>
